--- a/Costos2022.xlsx
+++ b/Costos2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Pedestal ALU-COB" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>Capacidad</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Precio Lista 1.2 KV (sin gabinete)</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>IVA 16%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -134,6 +143,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,306 +451,238 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>84226</v>
+      <c r="B5" s="11">
+        <v>80015</v>
       </c>
       <c r="C5">
-        <f>B5*0.92</f>
-        <v>77487.92</v>
+        <f>B5*0.16</f>
+        <v>12802.4</v>
       </c>
       <c r="D5">
-        <f>C5*0.16</f>
-        <v>12398.0672</v>
-      </c>
-      <c r="E5">
-        <f>C5+D5</f>
-        <v>89885.987200000003</v>
+        <f>B5+C6</f>
+        <v>93517.72</v>
       </c>
       <c r="G5">
         <v>84713</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H12" si="0">G5*0.92</f>
-        <v>77935.960000000006</v>
+        <f>G5*0.16</f>
+        <v>13554.08</v>
       </c>
       <c r="I5">
-        <f>H5*0.16</f>
-        <v>12469.753600000002</v>
-      </c>
-      <c r="J5">
-        <f>H5+I5</f>
-        <v>90405.713600000003</v>
+        <f>G5+H5</f>
+        <v>98267.08</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>
-      <c r="B6">
-        <v>88834</v>
+      <c r="B6" s="11">
+        <v>84392</v>
       </c>
       <c r="C6">
-        <f>B6*0.92</f>
-        <v>81727.28</v>
+        <f t="shared" ref="C6:C12" si="0">B6*0.16</f>
+        <v>13502.720000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D12" si="1">C6*0.16</f>
-        <v>13076.364799999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E12" si="2">C6+D6</f>
-        <v>94803.644799999995</v>
+        <f t="shared" ref="D6:D12" si="1">B6+C7</f>
+        <v>98850.559999999998</v>
       </c>
       <c r="G6">
         <v>89062</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>81937.040000000008</v>
+        <f t="shared" ref="H6:H12" si="2">G6*0.16</f>
+        <v>14249.92</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I12" si="3">H6*0.16</f>
-        <v>13109.926400000002</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J12" si="4">H6+I6</f>
-        <v>95046.966400000005</v>
+        <f t="shared" ref="I6:I12" si="3">G6+H6</f>
+        <v>103311.92</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>75</v>
       </c>
-      <c r="B7">
-        <v>95122</v>
+      <c r="B7" s="11">
+        <v>90366</v>
       </c>
       <c r="C7">
-        <f>B7*0.92</f>
-        <v>87512.24</v>
+        <f t="shared" si="0"/>
+        <v>14458.56</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>14001.958400000001</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>101514.19840000001</v>
+        <v>107123.44</v>
       </c>
       <c r="G7">
         <v>95697</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>88041.24</v>
+        <f t="shared" si="2"/>
+        <v>15311.52</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>14086.598400000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>102127.83840000001</v>
+        <v>111008.52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>112.5</v>
       </c>
-      <c r="B8">
-        <v>113842</v>
+      <c r="B8" s="11">
+        <v>104734</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="5">B8*0.92</f>
-        <v>104734.64</v>
+        <f t="shared" si="0"/>
+        <v>16757.439999999999</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>16757.542399999998</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>121492.18239999999</v>
+        <v>123714</v>
       </c>
       <c r="G8">
         <v>114424</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>105270.08</v>
+        <f t="shared" si="2"/>
+        <v>18307.84</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>16843.212800000001</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>122113.2928</v>
+        <v>132731.84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>150</v>
       </c>
-      <c r="B9" s="3">
-        <v>124868</v>
+      <c r="B9" s="12">
+        <v>118625</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>114878.56000000001</v>
+        <f t="shared" si="0"/>
+        <v>18980</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>18380.569600000003</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>133259.12960000001</v>
+        <v>145010.44</v>
       </c>
       <c r="G9">
         <v>125630</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>115579.6</v>
+        <f t="shared" si="2"/>
+        <v>20100.8</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>18492.736000000001</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>134072.33600000001</v>
+        <v>145730.79999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>225</v>
       </c>
-      <c r="B10" s="6">
-        <v>173588</v>
-      </c>
-      <c r="C10" s="5">
-        <f>B10*0.92</f>
-        <v>159700.96000000002</v>
+      <c r="B10" s="13">
+        <v>164909</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>26385.440000000002</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>25552.153600000005</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>185253.11360000004</v>
+        <v>194901.64</v>
       </c>
       <c r="G10">
         <v>174455</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>160498.6</v>
+        <f t="shared" si="2"/>
+        <v>27912.799999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>25679.776000000002</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>186178.37600000002</v>
+        <v>202367.8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
-      <c r="B11" s="4">
-        <v>197320</v>
+      <c r="B11" s="14">
+        <v>187454</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C12" si="6">B11*0.92</f>
-        <v>181534.4</v>
+        <f t="shared" si="0"/>
+        <v>29992.639999999999</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>29045.504000000001</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>210579.90399999998</v>
+        <v>226390.8</v>
       </c>
       <c r="G11">
         <v>198325</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>182459</v>
+        <f t="shared" si="2"/>
+        <v>31732</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>29193.440000000002</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>211652.44</v>
+        <v>230057</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>500</v>
       </c>
-      <c r="B12" s="4">
-        <v>256163</v>
+      <c r="B12" s="14">
+        <v>243355</v>
       </c>
       <c r="C12">
-        <f t="shared" si="6"/>
-        <v>235669.96000000002</v>
+        <f t="shared" si="0"/>
+        <v>38936.800000000003</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>37707.193600000006</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>273377.15360000002</v>
+        <v>243355</v>
       </c>
       <c r="G12">
         <v>257026</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>236463.92</v>
+        <f t="shared" si="2"/>
+        <v>41124.160000000003</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>37834.227200000001</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>274298.14720000001</v>
+        <v>298150.16000000003</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +696,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,306 +719,238 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2">
-        <v>77243</v>
+      <c r="B2" s="7">
+        <v>73380</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>71063.56</v>
-      </c>
-      <c r="D2">
-        <f>C2*0.16</f>
-        <v>11370.169599999999</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>82433.729599999991</v>
+        <f>B2*0.16</f>
+        <v>11740.800000000001</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2+C2</f>
+        <v>85120.8</v>
       </c>
       <c r="G2">
         <v>77735</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H9" si="0">G2*0.92</f>
-        <v>71516.2</v>
+        <f>G2*0.16</f>
+        <v>12437.6</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>11442.592000000001</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>82958.792000000001</v>
+        <f>G2+H2</f>
+        <v>90172.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
-      <c r="B3">
-        <v>81492</v>
+      <c r="B3" s="7">
+        <v>77417</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>74972.639999999999</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="1">C3*0.16</f>
-        <v>11995.6224</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="2">C3+D3</f>
-        <v>86968.262400000007</v>
+        <f t="shared" ref="C3:C9" si="0">B3*0.16</f>
+        <v>12386.720000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D9" si="1">B3+C3</f>
+        <v>89803.72</v>
       </c>
       <c r="G3">
         <v>81889</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>75337.88</v>
+        <f t="shared" ref="H3:H9" si="2">G3*0.16</f>
+        <v>13102.24</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I9" si="3">H3*0.16</f>
-        <v>12054.060800000001</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">H3+I3</f>
-        <v>87391.940800000011</v>
+        <f t="shared" ref="I3:I9" si="3">G3+H3</f>
+        <v>94991.24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
-      <c r="B4">
-        <v>87720</v>
+      <c r="B4" s="7">
+        <v>83334</v>
       </c>
       <c r="C4">
-        <f>B4*0.92</f>
-        <v>80702.400000000009</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>12912.384000000002</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>93614.784000000014</v>
+        <f t="shared" si="0"/>
+        <v>13333.44</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="1"/>
+        <v>96667.44</v>
       </c>
       <c r="G4">
         <v>88466</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>81388.72</v>
+        <f t="shared" si="2"/>
+        <v>14154.56</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>13022.1952</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>94410.915200000003</v>
+        <v>102620.56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>112.5</v>
       </c>
-      <c r="B5">
-        <v>101485</v>
+      <c r="B5" s="7">
+        <v>96410</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C6" si="5">B5*0.92</f>
-        <v>93366.2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>14938.592000000001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>108304.792</v>
+        <f t="shared" si="0"/>
+        <v>15425.6</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>111835.6</v>
       </c>
       <c r="G5">
         <v>102238</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>94058.96</v>
+        <f t="shared" si="2"/>
+        <v>16358.08</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>15049.433600000002</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>109108.39360000001</v>
+        <v>118596.08</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
-      <c r="B6" s="3">
-        <v>112013</v>
+      <c r="B6" s="8">
+        <v>106412</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
-        <v>103051.96</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>16488.313600000001</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>119540.27360000001</v>
+        <f t="shared" si="0"/>
+        <v>17025.920000000002</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>123437.92</v>
       </c>
       <c r="G6">
         <v>112952</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>103915.84000000001</v>
+        <f t="shared" si="2"/>
+        <v>18072.32</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>16626.5344</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>120542.37440000002</v>
+        <v>131024.32000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>225</v>
       </c>
-      <c r="B7" s="6">
-        <v>152854</v>
-      </c>
-      <c r="C7" s="5">
-        <f>B7*0.92</f>
-        <v>140625.68</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>22500.108799999998</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>163125.78879999998</v>
+      <c r="B7" s="9">
+        <v>145211</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>23233.760000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>168444.76</v>
       </c>
       <c r="G7">
         <v>153892</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>141580.64000000001</v>
+        <f t="shared" si="2"/>
+        <v>24622.720000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>22652.902400000003</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>164233.54240000001</v>
+        <v>178514.72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300</v>
       </c>
-      <c r="B8" s="4">
-        <v>174141</v>
+      <c r="B8" s="10">
+        <v>165433</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="6">B8*0.92</f>
-        <v>160209.72</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>25633.555200000003</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>185843.2752</v>
+        <f t="shared" si="0"/>
+        <v>26469.279999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>191902.28</v>
       </c>
       <c r="G8">
         <v>176755</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>162614.6</v>
+        <f t="shared" si="2"/>
+        <v>28280.799999999999</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>26018.336000000003</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>188632.93600000002</v>
+        <v>205035.8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
-      <c r="B9" s="4">
-        <v>225217</v>
+      <c r="B9" s="10">
+        <v>213956</v>
       </c>
       <c r="C9">
-        <f t="shared" si="6"/>
-        <v>207199.64</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>33151.9424</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>240351.58240000001</v>
+        <f t="shared" si="0"/>
+        <v>34232.959999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>248188.96</v>
       </c>
       <c r="G9">
         <v>226000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>207920</v>
+        <f t="shared" si="2"/>
+        <v>36160</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>33267.199999999997</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>241187.20000000001</v>
+        <v>262160</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/Costos2022.xlsx
+++ b/Costos2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pedestal ALU-COB" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>Capacidad</t>
   </si>
@@ -434,7 +434,7 @@
   <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,22 +504,22 @@
         <v>84392</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C12" si="0">B6*0.16</f>
+        <f>B6*0.16</f>
         <v>13502.720000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D12" si="1">B6+C7</f>
+        <f t="shared" ref="D6:D12" si="0">B6+C7</f>
         <v>98850.559999999998</v>
       </c>
       <c r="G6">
         <v>89062</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H12" si="2">G6*0.16</f>
+        <f>G6*0.16</f>
         <v>14249.92</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I12" si="3">G6+H6</f>
+        <f>G6+H6</f>
         <v>103311.92</v>
       </c>
     </row>
@@ -531,22 +531,22 @@
         <v>90366</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:C12" si="1">B7*0.16</f>
         <v>14458.56</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>107123.44</v>
       </c>
       <c r="G7">
         <v>95697</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H6:H12" si="2">G7*0.16</f>
         <v>15311.52</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f>G7+H7</f>
         <v>111008.52</v>
       </c>
     </row>
@@ -558,11 +558,11 @@
         <v>104734</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16757.439999999999</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>123714</v>
       </c>
       <c r="G8">
@@ -573,7 +573,7 @@
         <v>18307.84</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I6:I12" si="3">G8+H8</f>
         <v>132731.84</v>
       </c>
     </row>
@@ -585,11 +585,11 @@
         <v>118625</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18980</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145010.44</v>
       </c>
       <c r="G9">
@@ -612,11 +612,11 @@
         <v>164909</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26385.440000000002</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>194901.64</v>
       </c>
       <c r="G10">
@@ -639,11 +639,11 @@
         <v>187454</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29992.639999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>226390.8</v>
       </c>
       <c r="G11">
@@ -666,11 +666,11 @@
         <v>243355</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38936.800000000003</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>243355</v>
       </c>
       <c r="G12">
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,61 +977,49 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
       <c r="B2">
-        <v>87438</v>
+        <v>83066</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>80442.960000000006</v>
+        <f>B2*0.16</f>
+        <v>13290.56</v>
       </c>
       <c r="D2">
-        <f>C2*0.16</f>
-        <v>12870.873600000001</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>93313.833600000013</v>
+        <f>B2+C2</f>
+        <v>96356.56</v>
       </c>
       <c r="G2">
         <v>88121</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H9" si="0">G2*0.92</f>
-        <v>81071.320000000007</v>
+        <f>G2*0.16</f>
+        <v>14099.36</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>12971.411200000002</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>94042.731200000009</v>
+        <f>G2+H2</f>
+        <v>102220.36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1039,34 +1027,26 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>94479</v>
+        <v>89755</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>86920.680000000008</v>
+        <f t="shared" ref="C3:C9" si="0">B3*0.16</f>
+        <v>14360.800000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="1">C3*0.16</f>
-        <v>13907.308800000001</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="2">C3+D3</f>
-        <v>100827.98880000001</v>
+        <f t="shared" ref="D3:D9" si="1">B3+C3</f>
+        <v>104115.8</v>
       </c>
       <c r="G3">
         <v>95207</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>87590.44</v>
+        <f t="shared" ref="H3:H9" si="2">G3*0.16</f>
+        <v>15233.12</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I9" si="3">H3*0.16</f>
-        <v>14014.4704</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">H3+I3</f>
-        <v>101604.91040000001</v>
+        <f t="shared" ref="I3:I9" si="3">G3+H3</f>
+        <v>110440.12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,34 +1054,26 @@
         <v>75</v>
       </c>
       <c r="B4">
-        <v>103890</v>
+        <v>98695</v>
       </c>
       <c r="C4">
-        <f>B4*0.92</f>
-        <v>95578.8</v>
+        <f t="shared" si="0"/>
+        <v>15791.2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>15292.608</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>110871.408</v>
+        <v>114486.2</v>
       </c>
       <c r="G4">
         <v>105217</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>96799.64</v>
+        <f t="shared" si="2"/>
+        <v>16834.72</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>15487.9424</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>112287.5824</v>
+        <f>G4+H4</f>
+        <v>122051.72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1109,34 +1081,26 @@
         <v>112.5</v>
       </c>
       <c r="B5">
-        <v>125068</v>
+        <v>118814</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C6" si="5">B5*0.92</f>
-        <v>115062.56000000001</v>
+        <f t="shared" si="0"/>
+        <v>19010.240000000002</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>18410.009600000001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>133472.56960000002</v>
+        <v>137824.24</v>
       </c>
       <c r="G5">
         <v>126106</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>116017.52</v>
+        <f t="shared" si="2"/>
+        <v>20176.96</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>18562.803200000002</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>134580.32320000001</v>
+        <v>146282.96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,34 +1108,26 @@
         <v>150</v>
       </c>
       <c r="B6" s="3">
-        <v>138739</v>
+        <v>131802</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
-        <v>127639.88</v>
+        <f t="shared" si="0"/>
+        <v>21088.32</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>20422.380800000003</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>148062.26080000002</v>
+        <v>152890.32</v>
       </c>
       <c r="G6">
         <v>140829</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>129562.68000000001</v>
+        <f t="shared" si="2"/>
+        <v>22532.639999999999</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>20730.0288</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>150292.70880000002</v>
+        <v>163361.64000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1179,34 +1135,26 @@
         <v>225</v>
       </c>
       <c r="B7" s="6">
-        <v>190872</v>
-      </c>
-      <c r="C7" s="5">
-        <f>B7*0.92</f>
-        <v>175602.24000000002</v>
+        <v>181328</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>29012.48</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>28096.358400000005</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>203698.59840000002</v>
+        <v>210340.48000000001</v>
       </c>
       <c r="G7">
         <v>193767</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>178265.64</v>
+        <f>G7*0.16</f>
+        <v>31002.720000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>28522.502400000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>206788.14240000001</v>
+        <v>224769.72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1214,34 +1162,26 @@
         <v>300</v>
       </c>
       <c r="B8" s="4">
-        <v>220478</v>
+        <v>209463</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C9" si="6">B8*0.92</f>
-        <v>202839.76</v>
+        <f t="shared" si="0"/>
+        <v>33514.080000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>32454.361600000004</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>235294.12160000001</v>
+        <v>242977.08000000002</v>
       </c>
       <c r="G8">
         <v>223727</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>205828.84</v>
+        <f>G8*0.16</f>
+        <v>35796.32</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>32932.614399999999</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>238761.45439999999</v>
+        <f>G8+H8</f>
+        <v>259523.32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,34 +1189,26 @@
         <v>500</v>
       </c>
       <c r="B9" s="4">
-        <v>284425</v>
+        <v>270203</v>
       </c>
       <c r="C9">
-        <f t="shared" si="6"/>
-        <v>261671</v>
+        <f t="shared" si="0"/>
+        <v>43232.480000000003</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>41867.360000000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>303538.36</v>
+        <v>313435.48</v>
       </c>
       <c r="G9">
         <v>288449</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>265373.08</v>
+        <f t="shared" si="2"/>
+        <v>46151.840000000004</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>42459.692800000004</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>307832.77280000004</v>
+        <v>334600.84000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Costos2022.xlsx
+++ b/Costos2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pedestal ALU-COB" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -143,10 +143,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -433,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -473,7 +469,7 @@
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>80015</v>
       </c>
       <c r="C5">
@@ -500,7 +496,7 @@
       <c r="A6">
         <v>45</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>84392</v>
       </c>
       <c r="C6">
@@ -527,11 +523,11 @@
       <c r="A7">
         <v>75</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>90366</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C6:C12" si="1">B7*0.16</f>
+        <f t="shared" ref="C7:C12" si="1">B7*0.16</f>
         <v>14458.56</v>
       </c>
       <c r="D7">
@@ -542,7 +538,7 @@
         <v>95697</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H6:H12" si="2">G7*0.16</f>
+        <f t="shared" ref="H7:H12" si="2">G7*0.16</f>
         <v>15311.52</v>
       </c>
       <c r="I7">
@@ -554,7 +550,7 @@
       <c r="A8">
         <v>112.5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>104734</v>
       </c>
       <c r="C8">
@@ -573,7 +569,7 @@
         <v>18307.84</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I6:I12" si="3">G8+H8</f>
+        <f t="shared" ref="I8:I12" si="3">G8+H8</f>
         <v>132731.84</v>
       </c>
     </row>
@@ -581,7 +577,7 @@
       <c r="A9">
         <v>150</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>118625</v>
       </c>
       <c r="C9">
@@ -608,7 +604,7 @@
       <c r="A10" s="5">
         <v>225</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>164909</v>
       </c>
       <c r="C10">
@@ -635,7 +631,7 @@
       <c r="A11">
         <v>300</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="10">
         <v>187454</v>
       </c>
       <c r="C11">
@@ -662,7 +658,7 @@
       <c r="A12">
         <v>500</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>243355</v>
       </c>
       <c r="C12">
@@ -695,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Costos2022.xlsx
+++ b/Costos2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Pedestal ALU-COB" sheetId="2" r:id="rId1"/>
@@ -31,33 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>Capacidad</t>
-  </si>
-  <si>
-    <t>x .92 -15KV</t>
-  </si>
-  <si>
-    <t>16% -15KV</t>
-  </si>
-  <si>
-    <t>PV -15KV</t>
   </si>
   <si>
     <t>Precio Lista 15 KV</t>
   </si>
   <si>
     <t>Precio Lista 25 KV</t>
-  </si>
-  <si>
-    <t>x .92 -25KV</t>
-  </si>
-  <si>
-    <t>16% -25KV</t>
-  </si>
-  <si>
-    <t>PV -25KV</t>
   </si>
   <si>
     <t>Precio Lista 1.2 KV (con gabinete)</t>
@@ -73,6 +55,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>I VA</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Iva</t>
   </si>
 </sst>
 </file>
@@ -444,24 +435,24 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -691,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,24 +703,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -970,24 +961,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -1218,7 +1209,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,64 +1223,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
       <c r="B2">
-        <v>66113</v>
+        <v>62807</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>60823.96</v>
+        <f>B2*0.16</f>
+        <v>10049.120000000001</v>
       </c>
       <c r="D2">
-        <f>C2*0.16</f>
-        <v>9731.8335999999999</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>70555.793600000005</v>
+        <f>B2+C2</f>
+        <v>72856.12</v>
       </c>
       <c r="G2">
-        <v>66737</v>
+        <v>63400</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">G2*0.92</f>
-        <v>61398.04</v>
+        <f>G2*0.16</f>
+        <v>10144</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>9823.6864000000005</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>71221.7264</v>
+        <f>G2+H2</f>
+        <v>73544</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,34 +1276,26 @@
         <v>75</v>
       </c>
       <c r="B3">
-        <v>76250</v>
+        <v>74438</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>70150</v>
+        <f t="shared" ref="C3:C7" si="0">B3*0.16</f>
+        <v>11910.08</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="1">C3*0.16</f>
-        <v>11224</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="2">C3+D3</f>
-        <v>81374</v>
+        <f t="shared" ref="D3:D7" si="1">B3+C3</f>
+        <v>86348.08</v>
       </c>
       <c r="G3">
-        <v>77388</v>
+        <v>73519</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>71196.960000000006</v>
+        <f t="shared" ref="H3:H7" si="2">G3*0.16</f>
+        <v>11763.04</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="3">H3*0.16</f>
-        <v>11391.513600000002</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="4">H3+I3</f>
-        <v>82588.473600000012</v>
+        <f t="shared" ref="I3:I7" si="3">G3+H3</f>
+        <v>85282.040000000008</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1332,34 +1303,26 @@
         <v>112.5</v>
       </c>
       <c r="B4">
-        <v>93123</v>
+        <v>88467</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="5">B4*0.92</f>
-        <v>85673.16</v>
+        <f t="shared" si="0"/>
+        <v>14154.720000000001</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>13707.705600000001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>99380.865600000005</v>
+        <v>102621.72</v>
       </c>
       <c r="G4">
-        <v>93515</v>
+        <v>88839</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>86033.8</v>
+        <f t="shared" si="2"/>
+        <v>14214.24</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>13765.408000000001</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>99799.207999999999</v>
+        <v>103053.24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1367,34 +1330,26 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>108637</v>
+        <v>103205</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
-        <v>99946.040000000008</v>
+        <f t="shared" si="0"/>
+        <v>16512.8</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>15991.366400000001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>115937.40640000001</v>
+        <v>119717.8</v>
       </c>
       <c r="G5">
-        <v>109623</v>
+        <v>104142</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>100853.16</v>
+        <f t="shared" si="2"/>
+        <v>16662.72</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>16136.5056</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>116989.66560000001</v>
+        <v>120804.72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,34 +1357,26 @@
         <v>225</v>
       </c>
       <c r="B6" s="6">
-        <v>139173</v>
-      </c>
-      <c r="C6" s="5">
-        <f>B6*0.92</f>
-        <v>128039.16</v>
+        <v>132214</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>21154.240000000002</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>20486.265600000002</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>148525.42560000002</v>
+        <v>153368.24</v>
       </c>
       <c r="G6">
-        <v>140516</v>
+        <v>133490</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>129274.72</v>
+        <f t="shared" si="2"/>
+        <v>21358.400000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>20683.9552</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>149958.6752</v>
+        <v>154848.4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,34 +1384,26 @@
         <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>158271</v>
+        <v>150357</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7" si="6">B7*0.92</f>
-        <v>145609.32</v>
+        <f t="shared" si="0"/>
+        <v>24057.119999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>23297.4912</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>168906.8112</v>
+        <v>174414.12</v>
       </c>
       <c r="G7">
-        <v>158544</v>
+        <v>150617</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>145860.48000000001</v>
+        <f t="shared" si="2"/>
+        <v>24098.720000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>23337.676800000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>169198.1568</v>
+        <v>174715.72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1481,7 +1420,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,64 +1434,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
       <c r="B2">
-        <v>61142</v>
+        <v>58085</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>56250.64</v>
+        <f>B2*0.16</f>
+        <v>9293.6</v>
       </c>
       <c r="D2">
-        <f>C2*0.16</f>
-        <v>9000.1023999999998</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>65250.742400000003</v>
+        <f>B2+C2</f>
+        <v>67378.600000000006</v>
       </c>
       <c r="G2">
-        <v>61757</v>
+        <v>58669</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">G2*0.92</f>
-        <v>56816.44</v>
+        <f>G2*0.16</f>
+        <v>9387.0400000000009</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>9090.6304</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>65907.070399999997</v>
+        <f>G2+H2</f>
+        <v>68056.040000000008</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1560,34 +1487,26 @@
         <v>75</v>
       </c>
       <c r="B3">
-        <v>69799</v>
+        <v>66309</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>64215.08</v>
+        <f t="shared" ref="C3:C7" si="0">B3*0.16</f>
+        <v>10609.44</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="1">C3*0.16</f>
-        <v>10274.4128</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="2">C3+D3</f>
-        <v>74489.492800000007</v>
+        <f t="shared" ref="D3:D7" si="1">B3+C3</f>
+        <v>76918.44</v>
       </c>
       <c r="G3">
-        <v>70868</v>
+        <v>67325</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>65198.560000000005</v>
+        <f t="shared" ref="H3:H7" si="2">G3*0.16</f>
+        <v>10772</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="3">H3*0.16</f>
-        <v>10431.769600000001</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="4">H3+I3</f>
-        <v>75630.329600000012</v>
+        <f t="shared" ref="I3:I7" si="3">G3+H3</f>
+        <v>78097</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1595,34 +1514,26 @@
         <v>112.5</v>
       </c>
       <c r="B4">
-        <v>84100</v>
+        <v>79895</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="5">B4*0.92</f>
-        <v>77372</v>
+        <f t="shared" si="0"/>
+        <v>12783.2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>12379.52</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>89751.52</v>
+        <v>92678.2</v>
       </c>
       <c r="G4">
-        <v>84621</v>
+        <v>80390</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>77851.320000000007</v>
+        <f t="shared" si="2"/>
+        <v>12862.4</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>12456.211200000002</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>90307.531200000012</v>
+        <v>93252.4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1630,34 +1541,26 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>98401</v>
+        <v>93481</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
-        <v>90528.92</v>
+        <f t="shared" si="0"/>
+        <v>14956.960000000001</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>14484.627200000001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>105013.5472</v>
+        <v>108437.96</v>
       </c>
       <c r="G5">
-        <v>99554</v>
+        <v>94576</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>91589.680000000008</v>
+        <f t="shared" si="2"/>
+        <v>15132.16</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>14654.348800000002</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>106244.02880000001</v>
+        <v>109708.16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1665,34 +1568,26 @@
         <v>225</v>
       </c>
       <c r="B6" s="6">
-        <v>124951</v>
-      </c>
-      <c r="C6" s="5">
-        <f>B6*0.92</f>
-        <v>114954.92</v>
+        <v>118703</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>18992.48</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>18392.787199999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>133347.7072</v>
+        <v>137695.48000000001</v>
       </c>
       <c r="G6">
-        <v>126351</v>
+        <v>120033</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>116242.92</v>
+        <f t="shared" si="2"/>
+        <v>19205.28</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>18598.867200000001</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>134841.78719999999</v>
+        <v>139238.28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1700,34 +1595,26 @@
         <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>141168</v>
+        <v>134110</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7" si="6">B7*0.92</f>
-        <v>129874.56000000001</v>
+        <f t="shared" si="0"/>
+        <v>21457.600000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>20779.929600000003</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>150654.48960000003</v>
+        <v>155567.6</v>
       </c>
       <c r="G7">
-        <v>142193</v>
+        <v>135083</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>130817.56000000001</v>
+        <f t="shared" si="2"/>
+        <v>21613.279999999999</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>20930.809600000004</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>151748.36960000001</v>
+        <v>156696.28</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1628,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,64 +1642,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
       <c r="B2">
-        <v>56172</v>
+        <v>53363</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>51678.240000000005</v>
+        <f>B2*0.16</f>
+        <v>8538.08</v>
       </c>
       <c r="D2">
-        <f>C2*0.16</f>
-        <v>8268.5184000000008</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>59946.758400000006</v>
+        <f>B2+C2</f>
+        <v>61901.08</v>
       </c>
       <c r="G2">
-        <v>56778</v>
+        <v>53939</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">G2*0.92</f>
-        <v>52235.76</v>
+        <f>G2*0.16</f>
+        <v>8630.24</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>8357.7216000000008</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>60593.481599999999</v>
+        <f>G2+H2</f>
+        <v>62569.24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,34 +1695,26 @@
         <v>75</v>
       </c>
       <c r="B3">
-        <v>63348</v>
+        <v>60180</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>58280.160000000003</v>
+        <f t="shared" ref="C3:C7" si="0">B3*0.16</f>
+        <v>9628.8000000000011</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="1">C3*0.16</f>
-        <v>9324.8256000000001</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="2">C3+D3</f>
-        <v>67604.9856</v>
+        <f t="shared" ref="D3:D7" si="1">B3+C3</f>
+        <v>69808.800000000003</v>
       </c>
       <c r="G3">
-        <v>64348</v>
+        <v>61130</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>59200.160000000003</v>
+        <f t="shared" ref="H3:H7" si="2">G3*0.16</f>
+        <v>9780.8000000000011</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="3">H3*0.16</f>
-        <v>9472.0256000000008</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="4">H3+I3</f>
-        <v>68672.185599999997</v>
+        <f t="shared" ref="I3:I7" si="3">G3+H3</f>
+        <v>70910.8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,34 +1722,26 @@
         <v>112.5</v>
       </c>
       <c r="B4">
-        <v>75077</v>
+        <v>71323</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="5">B4*0.92</f>
-        <v>69070.84</v>
+        <f t="shared" si="0"/>
+        <v>11411.68</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>11051.3344</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>80122.174399999989</v>
+        <v>82734.679999999993</v>
       </c>
       <c r="G4">
-        <v>75727</v>
+        <v>71940</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>69668.84</v>
+        <f t="shared" si="2"/>
+        <v>11510.4</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>11147.0144</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>80815.854399999997</v>
+        <v>83450.399999999994</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,34 +1749,26 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>88166</v>
+        <v>83758</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
-        <v>81112.72</v>
+        <f t="shared" si="0"/>
+        <v>13401.28</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>12978.0352</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>94090.7552</v>
+        <v>97159.28</v>
       </c>
       <c r="G5">
-        <v>89486</v>
+        <v>85012</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>82327.12000000001</v>
+        <f t="shared" si="2"/>
+        <v>13601.92</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>13172.339200000002</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>95499.459200000012</v>
+        <v>98613.92</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1925,34 +1776,26 @@
         <v>225</v>
       </c>
       <c r="B6" s="6">
-        <v>110729</v>
-      </c>
-      <c r="C6" s="5">
-        <f>B6*0.92</f>
-        <v>101870.68000000001</v>
+        <v>105193</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>16830.88</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>16299.308800000001</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>118169.98880000001</v>
+        <v>122023.88</v>
       </c>
       <c r="G6">
-        <v>112214</v>
+        <v>106603</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>103236.88</v>
+        <f t="shared" si="2"/>
+        <v>17056.48</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>16517.900799999999</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>119754.78080000001</v>
+        <v>123659.48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1960,34 +1803,26 @@
         <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>124066</v>
+        <v>117863</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7" si="6">B7*0.92</f>
-        <v>114140.72</v>
+        <f t="shared" si="0"/>
+        <v>18858.080000000002</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>18262.515200000002</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>132403.2352</v>
+        <v>136721.08000000002</v>
       </c>
       <c r="G7">
-        <v>125843</v>
+        <v>119550</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>115775.56000000001</v>
+        <f t="shared" si="2"/>
+        <v>19128</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>18524.089600000003</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>134299.6496</v>
+        <v>138678</v>
       </c>
     </row>
   </sheetData>
@@ -2000,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,64 +1850,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
       <c r="B2">
-        <v>41370</v>
+        <v>39302</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>38060.400000000001</v>
+        <f>B2*0.16</f>
+        <v>6288.32</v>
       </c>
       <c r="D2">
-        <f>C2*0.16</f>
-        <v>6089.6640000000007</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>44150.063999999998</v>
+        <f>B2+C2</f>
+        <v>45590.32</v>
       </c>
       <c r="G2">
-        <v>39293</v>
+        <v>37328</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H8" si="0">G2*0.92</f>
-        <v>36149.560000000005</v>
+        <f>G2*0.16</f>
+        <v>5972.4800000000005</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>5783.9296000000013</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>41933.489600000008</v>
+        <f>G2+H2</f>
+        <v>43300.480000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2080,34 +1903,26 @@
         <v>75</v>
       </c>
       <c r="B3">
-        <v>52011</v>
+        <v>49410</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>47850.12</v>
+        <f t="shared" ref="C3:C8" si="0">B3*0.16</f>
+        <v>7905.6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="1">C3*0.16</f>
-        <v>7656.0192000000006</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">C3+D3</f>
-        <v>55506.139200000005</v>
+        <f t="shared" ref="D3:D8" si="1">B3+C3</f>
+        <v>57315.6</v>
       </c>
       <c r="G3">
-        <v>49934</v>
+        <v>47437</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>45939.28</v>
+        <f t="shared" ref="H3:H8" si="2">G3*0.16</f>
+        <v>7589.92</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="3">H3*0.16</f>
-        <v>7350.2848000000004</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J8" si="4">H3+I3</f>
-        <v>53289.5648</v>
+        <f t="shared" ref="I3:I8" si="3">G3+H3</f>
+        <v>55026.92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2115,34 +1930,26 @@
         <v>112.5</v>
       </c>
       <c r="B4">
-        <v>64184</v>
+        <v>60975</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="5">B4*0.92</f>
-        <v>59049.280000000006</v>
+        <f t="shared" si="0"/>
+        <v>9756</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>9447.8848000000016</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>68497.164800000013</v>
+        <v>70731</v>
       </c>
       <c r="G4">
-        <v>61432</v>
+        <v>58360</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>56517.440000000002</v>
+        <f t="shared" si="2"/>
+        <v>9337.6</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>9042.7903999999999</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>65560.2304</v>
+        <v>67697.600000000006</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2150,34 +1957,26 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>70026</v>
+        <v>66525</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
-        <v>64423.920000000006</v>
+        <f t="shared" si="0"/>
+        <v>10644</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>10307.827200000002</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>74731.747200000013</v>
+        <v>77169</v>
       </c>
       <c r="G5">
-        <v>67272</v>
+        <v>63908</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>61890.240000000005</v>
+        <f t="shared" si="2"/>
+        <v>10225.280000000001</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>9902.4384000000009</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>71792.678400000004</v>
+        <v>74133.279999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,34 +1984,26 @@
         <v>225</v>
       </c>
       <c r="B6" s="4">
-        <v>101175</v>
+        <v>96116</v>
       </c>
       <c r="C6">
-        <f>B6*0.92</f>
-        <v>93081</v>
+        <f t="shared" si="0"/>
+        <v>15378.56</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>14892.960000000001</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>107973.96</v>
+        <v>111494.56</v>
       </c>
       <c r="G6">
-        <v>97281</v>
+        <v>92417</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>89498.52</v>
+        <f t="shared" si="2"/>
+        <v>14786.720000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>14319.763200000001</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>103818.28320000001</v>
+        <v>107203.72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,34 +2011,26 @@
         <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>110156</v>
+        <v>104648</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C8" si="6">B7*0.92</f>
-        <v>101343.52</v>
+        <f t="shared" si="0"/>
+        <v>16743.68</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>16214.9632</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>117558.4832</v>
+        <v>121391.67999999999</v>
       </c>
       <c r="G7">
-        <v>106262</v>
+        <v>100949</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>97761.040000000008</v>
+        <f t="shared" si="2"/>
+        <v>16151.84</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>15641.766400000002</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>113402.80640000002</v>
+        <v>117100.84</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2255,34 +2038,26 @@
         <v>500</v>
       </c>
       <c r="B8" s="4">
-        <v>161073</v>
+        <v>153019</v>
       </c>
       <c r="C8">
-        <f t="shared" si="6"/>
-        <v>148187.16</v>
+        <f t="shared" si="0"/>
+        <v>24483.040000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>23709.945600000003</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>171897.10560000001</v>
+        <v>177502.04</v>
       </c>
       <c r="G8">
-        <v>156332</v>
+        <v>148515</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>143825.44</v>
+        <f t="shared" si="2"/>
+        <v>23762.400000000001</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>23012.070400000001</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>166837.5104</v>
+        <v>172277.4</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2071,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,64 +2085,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
       <c r="B2">
-        <v>30199</v>
+        <v>28689</v>
       </c>
       <c r="C2">
-        <f>B2*0.92</f>
-        <v>27783.08</v>
+        <f>B2*0.16</f>
+        <v>4590.24</v>
       </c>
       <c r="D2">
-        <f>C2*0.16</f>
-        <v>4445.2928000000002</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
-        <v>32228.372800000001</v>
+        <f>B2+C2</f>
+        <v>33279.24</v>
       </c>
       <c r="G2">
-        <v>28122</v>
+        <v>26716</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H8" si="0">G2*0.92</f>
-        <v>25872.240000000002</v>
+        <f>G2*0.16</f>
+        <v>4274.5600000000004</v>
       </c>
       <c r="I2">
-        <f>H2*0.16</f>
-        <v>4139.5583999999999</v>
-      </c>
-      <c r="J2">
-        <f>H2+I2</f>
-        <v>30011.7984</v>
+        <f>G2+H2</f>
+        <v>30990.560000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2375,34 +2138,26 @@
         <v>75</v>
       </c>
       <c r="B3">
-        <v>33443</v>
+        <v>31771</v>
       </c>
       <c r="C3">
-        <f>B3*0.92</f>
-        <v>30767.56</v>
+        <f t="shared" ref="C3:C8" si="0">B3*0.16</f>
+        <v>5083.3599999999997</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="1">C3*0.16</f>
-        <v>4922.8096000000005</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">C3+D3</f>
-        <v>35690.369600000005</v>
+        <f t="shared" ref="D3:D8" si="1">B3+C3</f>
+        <v>36854.36</v>
       </c>
       <c r="G3">
-        <v>31279</v>
+        <v>29715</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>28776.68</v>
+        <f t="shared" ref="H3:H8" si="2">G3*0.16</f>
+        <v>4754.4000000000005</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="3">H3*0.16</f>
-        <v>4604.2687999999998</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J8" si="4">H3+I3</f>
-        <v>33380.948799999998</v>
+        <f t="shared" ref="I3:I8" si="3">G3+H3</f>
+        <v>34469.4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,34 +2165,26 @@
         <v>112.5</v>
       </c>
       <c r="B4">
-        <v>41866</v>
+        <v>39773</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="5">B4*0.92</f>
-        <v>38516.720000000001</v>
+        <f t="shared" si="0"/>
+        <v>6363.68</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>6162.6752000000006</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>44679.395199999999</v>
+        <v>46136.68</v>
       </c>
       <c r="G4">
-        <v>39112</v>
+        <v>37156</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>35983.040000000001</v>
+        <f t="shared" si="2"/>
+        <v>5944.96</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>5757.2864</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>41740.326399999998</v>
+        <v>43100.959999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,34 +2192,26 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>45835</v>
+        <v>43543</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
-        <v>42168.200000000004</v>
+        <f t="shared" si="0"/>
+        <v>6966.88</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>6746.9120000000012</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>48915.112000000008</v>
+        <v>50509.88</v>
       </c>
       <c r="G5">
-        <v>42965</v>
+        <v>40816</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>39527.800000000003</v>
+        <f t="shared" si="2"/>
+        <v>6530.56</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>6324.4480000000003</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>45852.248000000007</v>
+        <v>47346.559999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2480,34 +2219,26 @@
         <v>225</v>
       </c>
       <c r="B6" s="4">
-        <v>61749</v>
+        <v>58662</v>
       </c>
       <c r="C6">
-        <f>B6*0.92</f>
-        <v>56809.08</v>
+        <f t="shared" si="0"/>
+        <v>9385.92</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>9089.4528000000009</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>65898.532800000001</v>
+        <v>68047.92</v>
       </c>
       <c r="G6">
-        <v>57855</v>
+        <v>54962</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>53226.600000000006</v>
+        <f t="shared" si="2"/>
+        <v>8793.92</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>8516.2560000000012</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>61742.856000000007</v>
+        <v>63755.92</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2515,34 +2246,26 @@
         <v>300</v>
       </c>
       <c r="B7" s="4">
-        <v>68330</v>
+        <v>64913</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C8" si="6">B7*0.92</f>
-        <v>62863.600000000006</v>
+        <f t="shared" si="0"/>
+        <v>10386.08</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>10058.176000000001</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>72921.776000000013</v>
+        <v>75299.08</v>
       </c>
       <c r="G7">
-        <v>64273</v>
+        <v>61059</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>59131.16</v>
+        <f t="shared" si="2"/>
+        <v>9769.44</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>9460.9856</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>68592.145600000003</v>
+        <v>70828.44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2550,34 +2273,26 @@
         <v>500</v>
       </c>
       <c r="B8" s="4">
-        <v>94121</v>
+        <v>89415</v>
       </c>
       <c r="C8">
-        <f t="shared" si="6"/>
-        <v>86591.32</v>
+        <f t="shared" si="0"/>
+        <v>14306.4</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>13854.611200000001</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>100445.93120000001</v>
+        <v>103721.4</v>
       </c>
       <c r="G8">
-        <v>89380</v>
+        <v>84911</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>82229.600000000006</v>
+        <f t="shared" si="2"/>
+        <v>13585.76</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>13156.736000000001</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>95386.33600000001</v>
+        <v>98496.76</v>
       </c>
     </row>
   </sheetData>

--- a/Costos2022.xlsx
+++ b/Costos2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pedestal ALU-COB" sheetId="2" r:id="rId1"/>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
